--- a/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Initial.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Initial.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narakorn.s\Desktop\(OPR)Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR_OPR\OPR\src\assets\OPRFileImport\(OPR)Import emp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80272906-E554-44B3-99BE-FE0808B7C6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B49D679-80B2-417F-A24C-73A2C93680CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>initial_code</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>รหัสคำนำหน้า</t>
+  </si>
+  <si>
+    <t>company_code</t>
+  </si>
+  <si>
+    <t>รหัสบริษัท</t>
   </si>
 </sst>
 </file>
@@ -407,27 +413,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
     <col min="2" max="2" width="20.88671875" customWidth="1"/>
     <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -440,38 +450,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
